--- a/data/trans_orig/iP30A4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{884373D0-A9E9-435B-9825-301071BEF170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B532E94F-42D6-46AC-B5A0-092EE0889682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CCB3BCB5-4152-47D1-9E81-08EFB7D650EE}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9753BB96-6B6B-49D2-BA41-2AC9E2183B77}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>46,35%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
   </si>
   <si>
     <t>53,03%</t>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E17F494-BE41-4B97-A7B1-117C5629D8A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F10E035-C18D-4FFA-B719-9985B810606C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="D7" s="7">
-        <v>228969</v>
+        <v>102295</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +970,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="I7" s="7">
-        <v>204521</v>
+        <v>105490</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +985,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>548</v>
+        <v>288</v>
       </c>
       <c r="N7" s="7">
-        <v>433490</v>
+        <v>207785</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7">
-        <v>173312</v>
+        <v>102179</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1021,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="I8" s="7">
-        <v>145093</v>
+        <v>92777</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1036,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>391</v>
+        <v>263</v>
       </c>
       <c r="N8" s="7">
-        <v>318404</v>
+        <v>194956</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>939</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>751894</v>
+        <v>402741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="D10" s="7">
-        <v>102295</v>
+        <v>228969</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1125,10 +1125,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>105490</v>
+        <v>204521</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1140,10 +1140,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>288</v>
+        <v>548</v>
       </c>
       <c r="N10" s="7">
-        <v>207785</v>
+        <v>433490</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1161,10 +1161,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>102179</v>
+        <v>173312</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1176,10 +1176,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="I11" s="7">
-        <v>92777</v>
+        <v>145093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1191,10 +1191,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="N11" s="7">
-        <v>194956</v>
+        <v>318404</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1212,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1227,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1242,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="N12" s="7">
-        <v>402741</v>
+        <v>751894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1277,7 +1277,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>507</v>
@@ -1325,7 +1325,7 @@
         <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>78</v>

--- a/data/trans_orig/iP30A4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B532E94F-42D6-46AC-B5A0-092EE0889682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B00AC917-8F39-474B-AAB2-D66443294275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9753BB96-6B6B-49D2-BA41-2AC9E2183B77}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32C1AC25-8B15-4273-9F33-A81C5E02A068}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
   <si>
     <t>Menores según si toman verduras frescas o cocinadas más de una vez al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,232 +65,274 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
   </si>
   <si>
     <t>53,03%</t>
   </si>
   <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +343,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,39 +439,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -481,7 +523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -592,13 +634,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -607,6 +642,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -671,19 +713,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F10E035-C18D-4FFA-B719-9985B810606C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998684F0-6364-4EA6-BEBC-C29B6DF7053C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -800,10 +862,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>44925</v>
+        <v>24476</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -815,10 +877,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>43855</v>
+        <v>21909</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -830,10 +892,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>88780</v>
+        <v>46385</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -851,10 +913,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>57654</v>
+        <v>18668</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -866,10 +928,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>48872</v>
+        <v>24384</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -881,10 +943,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="N5" s="7">
-        <v>106526</v>
+        <v>43051</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -902,10 +964,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -917,10 +979,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -932,10 +994,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -955,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D7" s="7">
-        <v>102295</v>
+        <v>94188</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +1032,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="I7" s="7">
-        <v>105490</v>
+        <v>75582</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +1047,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="N7" s="7">
-        <v>207785</v>
+        <v>169770</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1068,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="7">
-        <v>102179</v>
+        <v>80529</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1083,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I8" s="7">
-        <v>92777</v>
+        <v>83183</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1098,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N8" s="7">
-        <v>194956</v>
+        <v>163712</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204474</v>
+        <v>174717</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1134,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1149,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402741</v>
+        <v>333482</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,49 +1172,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7">
-        <v>228969</v>
+        <v>94035</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>114</v>
+      </c>
+      <c r="I10" s="7">
+        <v>88590</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>272</v>
-      </c>
-      <c r="I10" s="7">
-        <v>204521</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>225</v>
+      </c>
+      <c r="N10" s="7">
+        <v>182625</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>548</v>
-      </c>
-      <c r="N10" s="7">
-        <v>433490</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,49 +1223,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>173312</v>
+        <v>108443</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="7">
+        <v>119</v>
+      </c>
+      <c r="I11" s="7">
+        <v>87523</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>189</v>
-      </c>
-      <c r="I11" s="7">
-        <v>145093</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>251</v>
+      </c>
+      <c r="N11" s="7">
+        <v>195966</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>391</v>
-      </c>
-      <c r="N11" s="7">
-        <v>318404</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,10 +1274,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402281</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1289,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1304,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>939</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>751894</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1259,31 +1321,31 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>503</v>
+        <v>141</v>
       </c>
       <c r="D13" s="7">
-        <v>376189</v>
+        <v>120446</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="H13" s="7">
-        <v>507</v>
+        <v>132</v>
       </c>
       <c r="I13" s="7">
-        <v>353867</v>
+        <v>100661</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1295,10 +1357,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>1010</v>
+        <v>273</v>
       </c>
       <c r="N13" s="7">
-        <v>730056</v>
+        <v>221107</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1316,49 +1378,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>437</v>
+        <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>333145</v>
+        <v>168548</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="I14" s="7">
-        <v>286742</v>
+        <v>158777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>845</v>
+        <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>619886</v>
+        <v>327326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,55 +1429,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548433</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>437</v>
+      </c>
+      <c r="D16" s="7">
+        <v>333145</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7">
+        <v>408</v>
+      </c>
+      <c r="I16" s="7">
+        <v>286742</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="7">
+        <v>845</v>
+      </c>
+      <c r="N16" s="7">
+        <v>619886</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>503</v>
+      </c>
+      <c r="D17" s="7">
+        <v>376188</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7">
+        <v>507</v>
+      </c>
+      <c r="I17" s="7">
+        <v>353867</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1010</v>
+      </c>
+      <c r="N17" s="7">
+        <v>730056</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>940</v>
       </c>
-      <c r="D15" s="7">
-        <v>709334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D18" s="7">
+        <v>709333</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>915</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640609</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1855</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1349942</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
